--- a/example.xlsx
+++ b/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Wawa\OneDrive\Documents\Studia\TIMO\excelToIcsFlask\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F19FBB2-6569-4A72-972F-30C9C6DD3357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E7F3B3-C536-4E28-8B10-C2093F258C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,9 +28,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>start</t>
   </si>
   <si>
     <t>end</t>
@@ -55,6 +52,9 @@
   </si>
   <si>
     <t>Chicago</t>
+  </si>
+  <si>
+    <t>begin</t>
   </si>
 </sst>
 </file>
@@ -132,7 +132,7 @@
   </autoFilter>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{DBA75008-45DD-480A-8D77-31BAD097AABF}" name="name"/>
-    <tableColumn id="2" xr3:uid="{8DCBF9B6-4438-465B-AD95-C2428D677917}" name="start" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{8DCBF9B6-4438-465B-AD95-C2428D677917}" name="begin" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{B15D58A6-E723-403C-850B-7E0BC4612EAB}" name="end" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{07EE9EEA-8878-4ED9-96CC-4700DA112A75}" name="duration (min)"/>
     <tableColumn id="5" xr3:uid="{183F56CB-1403-495C-99E8-ACDCB37A532E}" name="location"/>
@@ -408,7 +408,7 @@
   <dimension ref="A1:F116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -426,24 +426,24 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1">
         <v>44493.4375</v>
@@ -452,12 +452,12 @@
         <v>44493.479166666664</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>44494.4375</v>
@@ -467,7 +467,7 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
